--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9455E7-EB55-CA44-923E-C0EDF92871F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485F752-E26F-5448-B990-8E6F30D87921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>University Lake, Chapel Hill</t>
-  </si>
-  <si>
     <t>Pinchot Lake, Harrisburg</t>
   </si>
   <si>
@@ -110,12 +107,6 @@
     <t>OH</t>
   </si>
   <si>
-    <t>Owen Park OR Lake Julian</t>
-  </si>
-  <si>
-    <t>Carvins Cove OR Lake Moomaw</t>
-  </si>
-  <si>
     <t>Green Lake</t>
   </si>
   <si>
@@ -243,6 +234,15 @@
   </si>
   <si>
     <t>Hillside Park</t>
+  </si>
+  <si>
+    <t>Owen Park</t>
+  </si>
+  <si>
+    <t>Gilly's Park</t>
+  </si>
+  <si>
+    <t>Oneonta</t>
   </si>
 </sst>
 </file>
@@ -252,7 +252,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -271,6 +271,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -295,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -308,6 +313,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,7 +651,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -689,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -709,10 +715,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -729,10 +735,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -749,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -769,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -789,10 +795,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -812,7 +818,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -822,6 +828,12 @@
       </c>
       <c r="F8" s="2">
         <v>-82.430564000000004</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45440</v>
+      </c>
+      <c r="H8" s="1">
+        <v>24.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18">
@@ -832,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -844,153 +856,145 @@
         <v>-77.920331099999999</v>
       </c>
       <c r="G9" s="5">
-        <v>45802</v>
+        <v>45437</v>
       </c>
       <c r="H9" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18">
+    <row r="10" spans="1:8" ht="19">
       <c r="A10" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="3">
-        <v>35.897644999999997</v>
+        <v>9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>37.015326000000002</v>
       </c>
       <c r="F10" s="2">
-        <v>-79.092827999999997</v>
+        <v>-79.879589999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="4">
-        <v>37.383656000000002</v>
+        <v>37.750794999999997</v>
       </c>
       <c r="F11" s="2">
-        <v>-79.948908000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>-77.358057000000002</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45436</v>
+      </c>
+      <c r="H11" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="4">
-        <v>37.750794999999997</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="3">
+        <v>40.083305000000003</v>
       </c>
       <c r="F12" s="2">
-        <v>-77.358057000000002</v>
-      </c>
-      <c r="G12" s="5">
-        <v>45436</v>
-      </c>
-      <c r="H12" s="1">
-        <v>27</v>
+        <v>-76.882706999999996</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3">
-        <v>40.083305000000003</v>
+        <v>41.486063999999999</v>
       </c>
       <c r="F13" s="2">
-        <v>-76.882706999999996</v>
+        <v>-75.731083999999996</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45435</v>
+      </c>
+      <c r="H13" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E14" s="3">
-        <v>41.486063999999999</v>
+        <v>42.285623999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>-75.731083999999996</v>
-      </c>
-      <c r="G14" s="5">
-        <v>45435</v>
-      </c>
-      <c r="H14" s="1">
-        <v>25</v>
+        <v>-73.884375000000006</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3">
-        <v>42.285623999999999</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-73.884375000000006</v>
-      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1007,10 +1011,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1027,10 +1031,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -1047,10 +1051,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -1067,13 +1071,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E20" s="4">
         <v>44.481127999999998</v>
@@ -1087,10 +1091,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -1107,10 +1111,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -1127,10 +1131,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1147,10 +1151,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -1167,10 +1171,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1187,10 +1191,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1207,10 +1211,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
@@ -1227,10 +1231,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1247,10 +1251,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
@@ -1267,10 +1271,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
@@ -1287,10 +1291,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
@@ -1307,10 +1311,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -1327,10 +1331,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -1347,10 +1351,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
@@ -1367,10 +1371,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
@@ -1387,10 +1391,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -1407,10 +1411,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1427,10 +1431,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1447,10 +1451,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1467,10 +1471,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1487,10 +1491,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1507,10 +1511,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C485F752-E26F-5448-B990-8E6F30D87921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B237F-F2F6-194E-8D52-FEF40F7FE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +654,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -881,6 +884,12 @@
       <c r="F10" s="2">
         <v>-79.879589999999993</v>
       </c>
+      <c r="G10" s="7">
+        <v>45441</v>
+      </c>
+      <c r="H10" s="1">
+        <v>28</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01B237F-F2F6-194E-8D52-FEF40F7FE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C4940-1777-5744-AFBC-DD062A9442C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -95,9 +95,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>Pinchot Lake, Harrisburg</t>
-  </si>
-  <si>
     <t>Oschner Pond (or Hoover Reservoir)</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Oneonta</t>
+  </si>
+  <si>
+    <t>Pinchot Lake</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -698,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
@@ -718,10 +718,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -738,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -758,10 +758,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
@@ -778,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>12</v>
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -847,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -899,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -925,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -935,6 +935,12 @@
       </c>
       <c r="F12" s="2">
         <v>-76.882706999999996</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45442</v>
+      </c>
+      <c r="H12" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
@@ -945,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
@@ -971,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -982,28 +988,37 @@
       <c r="F14" s="2">
         <v>-73.884375000000006</v>
       </c>
+      <c r="G14" s="5">
+        <v>45444</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="1">
+        <v>16</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="3"/>
+      <c r="G15" s="5">
+        <v>45443</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>10</v>
@@ -1020,10 +1035,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>10</v>
@@ -1040,10 +1055,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>16</v>
@@ -1060,10 +1075,10 @@
         <v>19</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>16</v>
@@ -1080,13 +1095,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="4">
         <v>44.481127999999998</v>
@@ -1100,10 +1115,10 @@
         <v>21</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -1120,10 +1135,10 @@
         <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>16</v>
@@ -1140,10 +1155,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1160,10 +1175,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -1180,10 +1195,10 @@
         <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1200,10 +1215,10 @@
         <v>26</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1220,10 +1235,10 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>15</v>
@@ -1240,10 +1255,10 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>15</v>
@@ -1260,10 +1275,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>15</v>
@@ -1280,10 +1295,10 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
@@ -1300,10 +1315,10 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>16</v>
@@ -1320,10 +1335,10 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>16</v>
@@ -1340,10 +1355,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>16</v>
@@ -1360,10 +1375,10 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
@@ -1380,10 +1395,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
@@ -1400,10 +1415,10 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>13</v>
@@ -1420,10 +1435,10 @@
         <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>13</v>
@@ -1440,10 +1455,10 @@
         <v>7</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1460,10 +1475,10 @@
         <v>8</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1480,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1500,10 +1515,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1520,10 +1535,10 @@
         <v>11</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7C4940-1777-5744-AFBC-DD062A9442C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C439A56-0C24-6041-95FE-412D294517D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -239,10 +239,10 @@
     <t>Gilly's Park</t>
   </si>
   <si>
-    <t>Oneonta</t>
-  </si>
-  <si>
     <t>Pinchot Lake</t>
+  </si>
+  <si>
+    <t>Goodyear Lake</t>
   </si>
 </sst>
 </file>
@@ -654,7 +654,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -925,7 +925,7 @@
         <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>13</v>
@@ -1000,14 +1000,22 @@
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3">
+        <v>42.505361000000001</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-74.975570000000005</v>
+      </c>
       <c r="G15" s="5">
         <v>45443</v>
+      </c>
+      <c r="H15" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C439A56-0C24-6041-95FE-412D294517D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBFADE-98A0-1B45-AFD9-13225A434FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
+    <workbookView xWindow="1220" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>site_num</t>
   </si>
@@ -59,9 +59,6 @@
     <t>collection_temp</t>
   </si>
   <si>
-    <t>Florida</t>
-  </si>
-  <si>
     <t>North Carolina</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
     <t>OH</t>
   </si>
   <si>
-    <t>Green Lake</t>
-  </si>
-  <si>
     <t>Vermont</t>
   </si>
   <si>
@@ -140,28 +134,10 @@
     <t>Moosehead Lake</t>
   </si>
   <si>
-    <t>Lake Trafford</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Lake June</t>
-  </si>
-  <si>
-    <t>East Lake Tohopekaliga</t>
-  </si>
-  <si>
-    <t>Newnans Lake</t>
-  </si>
-  <si>
     <t>Ringneck Marsh</t>
   </si>
   <si>
     <t>Keuka Lake</t>
-  </si>
-  <si>
-    <t>Lake Eustis</t>
   </si>
   <si>
     <t>Lake Whalom</t>
@@ -651,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B15" sqref="B15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -672,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -698,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4">
         <v>44.511474</v>
@@ -718,13 +694,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4">
         <v>44.595843000000002</v>
@@ -738,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4">
         <v>45.677449000000003</v>
@@ -758,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3">
         <v>45.910232999999998</v>
@@ -778,13 +754,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>46.143495999999999</v>
@@ -798,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4">
         <v>46.671587000000002</v>
@@ -818,13 +794,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="3">
         <v>35.609053000000003</v>
@@ -844,13 +820,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="3">
         <v>35.7911644</v>
@@ -867,16 +843,16 @@
     </row>
     <row r="10" spans="1:8" ht="19">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6">
         <v>37.015326000000002</v>
@@ -893,16 +869,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="4">
         <v>37.750794999999997</v>
@@ -919,16 +895,16 @@
     </row>
     <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3">
         <v>40.083305000000003</v>
@@ -945,16 +921,16 @@
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3">
         <v>41.486063999999999</v>
@@ -971,596 +947,473 @@
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E14" s="3">
+        <v>42.505361000000001</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-74.975570000000005</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45443</v>
+      </c>
+      <c r="H14" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="3">
-        <v>42.285623999999999</v>
-      </c>
-      <c r="F14" s="2">
-        <v>-73.884375000000006</v>
-      </c>
-      <c r="G14" s="5">
-        <v>45444</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="1">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="3">
-        <v>42.505361000000001</v>
+        <v>9</v>
+      </c>
+      <c r="E15" s="4">
+        <v>39.857290999999996</v>
       </c>
       <c r="F15" s="2">
-        <v>-74.975570000000005</v>
-      </c>
-      <c r="G15" s="5">
-        <v>45443</v>
-      </c>
-      <c r="H15" s="1">
-        <v>20</v>
+        <v>-83.022433000000007</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
-        <v>39.857290999999996</v>
+        <v>41.597422999999999</v>
       </c>
       <c r="F16" s="2">
-        <v>-83.022433000000007</v>
+        <v>-80.538070000000005</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>41.597422999999999</v>
+        <v>42.402887</v>
       </c>
       <c r="F17" s="2">
-        <v>-80.538070000000005</v>
+        <v>-77.212911000000005</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="4">
-        <v>42.402887</v>
+        <v>43.139069999999997</v>
       </c>
       <c r="F18" s="2">
-        <v>-77.212911000000005</v>
+        <v>-78.381262000000007</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="E19" s="4">
-        <v>43.139069999999997</v>
+        <v>44.481127999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>-78.381262000000007</v>
+        <v>-73.225581000000005</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E20" s="4">
-        <v>44.481127999999998</v>
+        <v>47.616047999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>-73.225581000000005</v>
+        <v>-68.793222999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
-        <v>47.616047999999999</v>
+        <v>43.490426999999997</v>
       </c>
       <c r="F21" s="2">
-        <v>-68.793222999999998</v>
+        <v>-74.406566999999995</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4">
-        <v>43.490426999999997</v>
+        <v>42.575761</v>
       </c>
       <c r="F22" s="2">
-        <v>-74.406566999999995</v>
+        <v>-71.744838000000001</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="4">
+        <v>42.465232999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-73.281081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4">
-        <v>42.575761</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-71.744838000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
+      <c r="B24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3">
+        <v>42.464753999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-71.153582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4">
-        <v>42.465232999999998</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-73.281081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="18">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="3">
-        <v>42.464753999999999</v>
+        <v>13</v>
+      </c>
+      <c r="E25" s="4">
+        <v>42.025022</v>
       </c>
       <c r="F25" s="2">
-        <v>-71.153582</v>
+        <v>-70.829712000000001</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E26" s="4">
-        <v>42.025022</v>
+        <v>41.775934999999997</v>
       </c>
       <c r="F26" s="2">
-        <v>-70.829712000000001</v>
+        <v>-72.528583999999995</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E27" s="4">
-        <v>41.775934999999997</v>
+        <v>41.953319999999998</v>
       </c>
       <c r="F27" s="2">
-        <v>-72.528583999999995</v>
+        <v>-71.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4">
-        <v>41.953319999999998</v>
+        <v>41.501545</v>
       </c>
       <c r="F28" s="2">
-        <v>-71.900000000000006</v>
+        <v>-72.225506999999993</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E29" s="4">
-        <v>41.501545</v>
+        <v>41.342627</v>
       </c>
       <c r="F29" s="2">
-        <v>-72.225506999999993</v>
+        <v>-73.510311000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E30" s="4">
-        <v>41.342627</v>
+        <v>42.934218999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>-73.510311000000002</v>
+        <v>-73.790290999999996</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" s="4">
-        <v>42.934218999999999</v>
+        <v>42.878841000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>-73.790290999999996</v>
+        <v>-75.574505000000002</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32" s="4">
-        <v>42.878841000000001</v>
+        <v>42.450108999999998</v>
       </c>
       <c r="F32" s="2">
-        <v>-75.574505000000002</v>
+        <v>-75.058643000000004</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="4">
-        <v>42.450108999999998</v>
+        <v>41.217438000000001</v>
       </c>
       <c r="F33" s="2">
-        <v>-75.058643000000004</v>
+        <v>-74.298657000000006</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="4">
-        <v>41.217438000000001</v>
+        <v>42.100256000000002</v>
       </c>
       <c r="F34" s="2">
-        <v>-74.298657000000006</v>
+        <v>-78.739012000000002</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35" s="4">
-        <v>42.100256000000002</v>
+        <v>41.158898000000001</v>
       </c>
       <c r="F35" s="2">
-        <v>-78.739012000000002</v>
+        <v>-78.841496000000006</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4">
-        <v>41.158898000000001</v>
+        <v>41.011890999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>-78.841496000000006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="4">
-        <v>41.011890999999999</v>
-      </c>
-      <c r="F37" s="2">
         <v>-77.671019999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>7</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" s="4">
-        <v>26.432376999999999</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-81.486333999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>8</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="4">
-        <v>27.313123000000001</v>
-      </c>
-      <c r="F42" s="2">
-        <v>-81.371504000000002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="4">
-        <v>28.26107</v>
-      </c>
-      <c r="F43" s="2">
-        <v>-81.284437999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="1">
-        <v>10</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="4">
-        <v>28.857116000000001</v>
-      </c>
-      <c r="F44" s="2">
-        <v>-81.687734000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="1">
-        <v>11</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="4">
-        <v>29.618074</v>
-      </c>
-      <c r="F45" s="2">
-        <v>-82.250645000000006</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H38">
-    <sortCondition ref="B1:B38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
+    <sortCondition ref="B1:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCBFADE-98A0-1B45-AFD9-13225A434FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124A5A0-10BB-6540-8F89-3A60548B011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>site_num</t>
   </si>
@@ -134,12 +134,6 @@
     <t>Moosehead Lake</t>
   </si>
   <si>
-    <t>Ringneck Marsh</t>
-  </si>
-  <si>
-    <t>Keuka Lake</t>
-  </si>
-  <si>
     <t>Lake Whalom</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
     <t>Greenwood Lake</t>
   </si>
   <si>
-    <t>Red House Lake</t>
-  </si>
-  <si>
     <t>Kyle Lake</t>
   </si>
   <si>
@@ -219,6 +210,18 @@
   </si>
   <si>
     <t>Goodyear Lake</t>
+  </si>
+  <si>
+    <t>Casterline Pond</t>
+  </si>
+  <si>
+    <t>Redhouse Lake</t>
+  </si>
+  <si>
+    <t>Edinboro Lake</t>
+  </si>
+  <si>
+    <t>Crusoe Creek</t>
   </si>
 </sst>
 </file>
@@ -627,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:D18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -789,35 +792,12 @@
         <v>-68.002167999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="18">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="3">
-        <v>35.609053000000003</v>
-      </c>
-      <c r="F8" s="2">
-        <v>-82.430564000000004</v>
-      </c>
-      <c r="G8" s="5">
-        <v>45440</v>
-      </c>
-      <c r="H8" s="1">
-        <v>24.5</v>
-      </c>
+    <row r="8" spans="1:8">
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -829,47 +809,47 @@
         <v>7</v>
       </c>
       <c r="E9" s="3">
-        <v>35.7911644</v>
+        <v>35.609053000000003</v>
       </c>
       <c r="F9" s="2">
-        <v>-77.920331099999999</v>
+        <v>-82.430564000000004</v>
       </c>
       <c r="G9" s="5">
-        <v>45437</v>
+        <v>45440</v>
       </c>
       <c r="H9" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="19">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="6">
-        <v>37.015326000000002</v>
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>35.7911644</v>
       </c>
       <c r="F10" s="2">
-        <v>-79.879589999999993</v>
-      </c>
-      <c r="G10" s="7">
-        <v>45441</v>
+        <v>-77.920331099999999</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45437</v>
       </c>
       <c r="H10" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
@@ -880,48 +860,48 @@
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
-        <v>37.750794999999997</v>
+      <c r="E11" s="6">
+        <v>37.015326000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>-77.358057000000002</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45436</v>
+        <v>-79.879589999999993</v>
+      </c>
+      <c r="G11" s="7">
+        <v>45441</v>
       </c>
       <c r="H11" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3">
-        <v>40.083305000000003</v>
+        <v>8</v>
+      </c>
+      <c r="E12" s="4">
+        <v>37.750794999999997</v>
       </c>
       <c r="F12" s="2">
-        <v>-76.882706999999996</v>
+        <v>-77.358057000000002</v>
       </c>
       <c r="G12" s="5">
-        <v>45442</v>
+        <v>45436</v>
       </c>
       <c r="H12" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
@@ -933,487 +913,549 @@
         <v>12</v>
       </c>
       <c r="E13" s="3">
-        <v>41.486063999999999</v>
+        <v>40.083305000000003</v>
       </c>
       <c r="F13" s="2">
-        <v>-75.731083999999996</v>
+        <v>-76.882706999999996</v>
       </c>
       <c r="G13" s="5">
-        <v>45435</v>
+        <v>45442</v>
       </c>
       <c r="H13" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>41.486063999999999</v>
+      </c>
+      <c r="F14" s="2">
+        <v>-75.731083999999996</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45435</v>
+      </c>
+      <c r="H14" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>42.505361000000001</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F15" s="2">
         <v>-74.975570000000005</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G15" s="5">
         <v>45443</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H15" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="4">
-        <v>39.857290999999996</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-83.022433000000007</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="4">
-        <v>41.597422999999999</v>
-      </c>
-      <c r="F16" s="2">
-        <v>-80.538070000000005</v>
-      </c>
+    <row r="16" spans="1:8" ht="18">
+      <c r="E16" s="3"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E17" s="4">
-        <v>42.402887</v>
+        <v>39.857290999999996</v>
       </c>
       <c r="F17" s="2">
-        <v>-77.212911000000005</v>
+        <v>-83.022433000000007</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4">
-        <v>43.139069999999997</v>
+        <v>41.597422999999999</v>
       </c>
       <c r="F18" s="2">
-        <v>-78.381262000000007</v>
+        <v>-80.538070000000005</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E19" s="4">
-        <v>44.481127999999998</v>
+        <v>42.652608999999998</v>
       </c>
       <c r="F19" s="2">
-        <v>-73.225581000000005</v>
+        <v>-76.173849000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" s="4">
-        <v>47.616047999999999</v>
+        <v>42.100183999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>-68.793222999999998</v>
+        <v>-78.738701000000006</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="4">
-        <v>43.490426999999997</v>
+        <v>41.881267999999999</v>
       </c>
       <c r="F21" s="2">
-        <v>-74.406566999999995</v>
+        <v>-80.138642000000004</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43.075364999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-76.743555999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="4">
-        <v>42.575761</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-71.744838000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="4">
-        <v>42.465232999999998</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-73.281081</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="3">
-        <v>42.464753999999999</v>
+      <c r="E24" s="4">
+        <v>44.481127999999998</v>
       </c>
       <c r="F24" s="2">
-        <v>-71.153582</v>
+        <v>-73.225581000000005</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25" s="4">
-        <v>42.025022</v>
+        <v>47.616047999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>-70.829712000000001</v>
+        <v>-68.793222999999998</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E26" s="4">
-        <v>41.775934999999997</v>
+        <v>43.490426999999997</v>
       </c>
       <c r="F26" s="2">
-        <v>-72.528583999999995</v>
+        <v>-74.406566999999995</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4">
-        <v>41.953319999999998</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-71.900000000000006</v>
-      </c>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="4">
-        <v>41.501545</v>
+        <v>42.575761</v>
       </c>
       <c r="F28" s="2">
-        <v>-72.225506999999993</v>
+        <v>-71.744838000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E29" s="4">
-        <v>41.342627</v>
+        <v>42.465232999999998</v>
       </c>
       <c r="F29" s="2">
-        <v>-73.510311000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-73.281081</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4">
-        <v>42.934218999999999</v>
+        <v>13</v>
+      </c>
+      <c r="E30" s="3">
+        <v>42.464753999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>-73.790290999999996</v>
+        <v>-71.153582</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E31" s="4">
-        <v>42.878841000000001</v>
+        <v>42.025022</v>
       </c>
       <c r="F31" s="2">
-        <v>-75.574505000000002</v>
+        <v>-70.829712000000001</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="4">
-        <v>42.450108999999998</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-75.058643000000004</v>
-      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E33" s="4">
-        <v>41.217438000000001</v>
+        <v>41.775934999999997</v>
       </c>
       <c r="F33" s="2">
-        <v>-74.298657000000006</v>
+        <v>-72.528583999999995</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E34" s="4">
-        <v>42.100256000000002</v>
+        <v>41.953319999999998</v>
       </c>
       <c r="F34" s="2">
-        <v>-78.739012000000002</v>
+        <v>-71.900000000000006</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E35" s="4">
-        <v>41.158898000000001</v>
+        <v>41.501545</v>
       </c>
       <c r="F35" s="2">
-        <v>-78.841496000000006</v>
+        <v>-72.225506999999993</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
+        <v>30</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="4">
+        <v>41.342627</v>
+      </c>
+      <c r="F36" s="2">
+        <v>-73.510311000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>31</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="4">
+        <v>42.934218999999999</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-73.790290999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="4">
+        <v>42.878841000000001</v>
+      </c>
+      <c r="F39" s="2">
+        <v>-75.574505000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="4">
+        <v>42.450108999999998</v>
+      </c>
+      <c r="F40" s="2">
+        <v>-75.058643000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="4">
+        <v>41.217438000000001</v>
+      </c>
+      <c r="F41" s="2">
+        <v>-74.298657000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="B42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E42" s="4">
+        <v>41.158898000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>-78.841496000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4">
         <v>41.011890999999999</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F43" s="2">
         <v>-77.671019999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H36">
-    <sortCondition ref="B1:B36"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+    <sortCondition ref="B1:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124A5A0-10BB-6540-8F89-3A60548B011C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C8B25-0CB6-D149-A838-93ADE57576BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>site_num</t>
   </si>
@@ -212,16 +212,13 @@
     <t>Goodyear Lake</t>
   </si>
   <si>
-    <t>Casterline Pond</t>
-  </si>
-  <si>
-    <t>Redhouse Lake</t>
-  </si>
-  <si>
     <t>Edinboro Lake</t>
   </si>
   <si>
     <t>Crusoe Creek</t>
+  </si>
+  <si>
+    <t>Birch Run Pond</t>
   </si>
 </sst>
 </file>
@@ -630,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -981,7 +978,7 @@
       <c r="E16" s="3"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1001,7 +998,7 @@
         <v>-83.022433000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1021,441 +1018,427 @@
         <v>-80.538070000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="4">
-        <v>42.652608999999998</v>
+        <v>42.088512000000001</v>
       </c>
       <c r="F19" s="2">
-        <v>-76.173849000000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-78.561786999999995</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45460</v>
+      </c>
+      <c r="H19" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" s="4">
-        <v>42.100183999999999</v>
+        <v>41.881267999999999</v>
       </c>
       <c r="F20" s="2">
-        <v>-78.738701000000006</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-80.138642000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21" s="4">
-        <v>41.881267999999999</v>
+        <v>43.075364999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>-80.138642000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
+        <v>-76.743555999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4">
-        <v>43.075364999999998</v>
-      </c>
-      <c r="F22" s="2">
-        <v>-76.743555999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="4">
+        <v>44.481127999999998</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-73.225581000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="4">
+        <v>47.616047999999999</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-68.793222999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
         <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="4">
-        <v>44.481127999999998</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-73.225581000000005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43.490426999999997</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-74.406566999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>23</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4">
+        <v>42.575761</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-71.744838000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
         <v>24</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="4">
-        <v>47.616047999999999</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-68.793222999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>22</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="4">
-        <v>43.490426999999997</v>
-      </c>
-      <c r="F26" s="2">
-        <v>-74.406566999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>23</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="4">
-        <v>42.575761</v>
+        <v>42.465232999999998</v>
       </c>
       <c r="F28" s="2">
-        <v>-71.744838000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-73.281081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18">
       <c r="A29" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="4">
-        <v>42.465232999999998</v>
+      <c r="E29" s="3">
+        <v>42.464753999999999</v>
       </c>
       <c r="F29" s="2">
-        <v>-73.281081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18">
+        <v>-71.153582</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="3">
-        <v>42.464753999999999</v>
+      <c r="E30" s="4">
+        <v>42.025022</v>
       </c>
       <c r="F30" s="2">
-        <v>-71.153582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1">
-        <v>26</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4">
-        <v>42.025022</v>
-      </c>
-      <c r="F31" s="2">
         <v>-70.829712000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="E32" s="4"/>
+    <row r="31" spans="1:8">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="4">
+        <v>41.775934999999997</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-72.528583999999995</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="4">
-        <v>41.775934999999997</v>
+        <v>41.953319999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>-72.528583999999995</v>
+        <v>-71.900000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E34" s="4">
-        <v>41.953319999999998</v>
+        <v>41.501545</v>
       </c>
       <c r="F34" s="2">
-        <v>-71.900000000000006</v>
+        <v>-72.225506999999993</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="4">
-        <v>41.501545</v>
+        <v>41.342627</v>
       </c>
       <c r="F35" s="2">
-        <v>-72.225506999999993</v>
+        <v>-73.510311000000002</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="1">
-        <v>30</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="4">
-        <v>41.342627</v>
-      </c>
-      <c r="F36" s="2">
-        <v>-73.510311000000002</v>
-      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="E37" s="4"/>
+      <c r="A37" s="1">
+        <v>31</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="4">
+        <v>42.934218999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-73.790290999999996</v>
+      </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E38" s="4">
-        <v>42.934218999999999</v>
+        <v>42.878841000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>-73.790290999999996</v>
+        <v>-75.574505000000002</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E39" s="4">
-        <v>42.878841000000001</v>
+        <v>42.450108999999998</v>
       </c>
       <c r="F39" s="2">
-        <v>-75.574505000000002</v>
+        <v>-75.058643000000004</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E40" s="4">
-        <v>42.450108999999998</v>
+        <v>41.217438000000001</v>
       </c>
       <c r="F40" s="2">
-        <v>-75.058643000000004</v>
+        <v>-74.298657000000006</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41" s="4">
-        <v>41.217438000000001</v>
+        <v>41.158898000000001</v>
       </c>
       <c r="F41" s="2">
-        <v>-74.298657000000006</v>
+        <v>-78.841496000000006</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="4">
-        <v>41.158898000000001</v>
+        <v>41.011890999999999</v>
       </c>
       <c r="F42" s="2">
-        <v>-78.841496000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="1">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="4">
-        <v>41.011890999999999</v>
-      </c>
-      <c r="F43" s="2">
         <v>-77.671019999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
-    <sortCondition ref="B1:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
+    <sortCondition ref="B1:B42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904C8B25-0CB6-D149-A838-93ADE57576BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823651D-EDDF-8242-963A-74D402115F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1017,6 +1017,12 @@
       <c r="F18" s="2">
         <v>-80.538070000000005</v>
       </c>
+      <c r="G18" s="5">
+        <v>45461</v>
+      </c>
+      <c r="H18" s="1">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1">

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7823651D-EDDF-8242-963A-74D402115F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD4B38-9C86-3045-A5A2-350B3C81C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -92,9 +92,6 @@
     <t>NC</t>
   </si>
   <si>
-    <t>Oschner Pond (or Hoover Reservoir)</t>
-  </si>
-  <si>
     <t>Pymatuning Reservoir</t>
   </si>
   <si>
@@ -219,6 +216,9 @@
   </si>
   <si>
     <t>Birch Run Pond</t>
+  </si>
+  <si>
+    <t>Ochsner Pond</t>
   </si>
 </sst>
 </file>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,10 +674,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
@@ -694,10 +694,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -714,10 +714,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
@@ -734,10 +734,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>11</v>
@@ -754,10 +754,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>11</v>
@@ -774,10 +774,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -826,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>8</v>
@@ -878,7 +878,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -904,7 +904,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>12</v>
@@ -930,7 +930,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>12</v>
@@ -956,7 +956,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>15</v>
@@ -983,10 +983,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -996,6 +996,12 @@
       </c>
       <c r="F17" s="2">
         <v>-83.022433000000007</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45463</v>
+      </c>
+      <c r="H17" s="1">
+        <v>23.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1003,10 +1009,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1029,10 +1035,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>15</v>
@@ -1055,10 +1061,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
@@ -1075,10 +1081,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>15</v>
@@ -1098,13 +1104,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4">
         <v>44.481127999999998</v>
@@ -1118,10 +1124,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>11</v>
@@ -1138,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>15</v>
@@ -1161,10 +1167,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>13</v>
@@ -1181,10 +1187,10 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>13</v>
@@ -1201,10 +1207,10 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>13</v>
@@ -1221,10 +1227,10 @@
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>13</v>
@@ -1244,10 +1250,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -1264,10 +1270,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -1284,10 +1290,10 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -1304,10 +1310,10 @@
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -1327,10 +1333,10 @@
         <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>15</v>
@@ -1347,10 +1353,10 @@
         <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>15</v>
@@ -1367,10 +1373,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>15</v>
@@ -1387,10 +1393,10 @@
         <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>15</v>
@@ -1407,10 +1413,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>12</v>
@@ -1427,10 +1433,10 @@
         <v>36</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>12</v>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BD4B38-9C86-3045-A5A2-350B3C81C892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C8D08-41EC-A34E-B1F2-5946793A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
   <si>
     <t>site_num</t>
   </si>
@@ -212,13 +212,19 @@
     <t>Edinboro Lake</t>
   </si>
   <si>
-    <t>Crusoe Creek</t>
-  </si>
-  <si>
     <t>Birch Run Pond</t>
   </si>
   <si>
     <t>Ochsner Pond</t>
+  </si>
+  <si>
+    <t>Ashefield Lake</t>
+  </si>
+  <si>
+    <t>MA_C</t>
+  </si>
+  <si>
+    <t>Cranberry Bog</t>
   </si>
 </sst>
 </file>
@@ -228,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,17 +247,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -276,20 +272,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -627,830 +621,867 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="22.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="2"/>
-    <col min="7" max="8" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="10.7109375" style="3"/>
+    <col min="2" max="2" width="22.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="1"/>
+    <col min="7" max="8" width="10.7109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>44.511474</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>-69.911663000000004</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>44.595843000000002</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>-68.567042000000001</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>45.677449000000003</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>-69.737115000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>45.910232999999998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>-66.019802999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18">
-      <c r="A6" s="1">
+    <row r="6" spans="1:8">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>46.143495999999999</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>-64.768084999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>46.671587000000002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>-68.002167999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" ht="18">
-      <c r="A9" s="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>35.609053000000003</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>-82.430564000000004</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>45440</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="3">
         <v>24.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>35.7911644</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>-77.920331099999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>45437</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="3">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>37.015326000000002</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>-79.879589999999993</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>45441</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>37.750794999999997</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>-77.358057000000002</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>45436</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18">
-      <c r="A13" s="1">
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>40.083305000000003</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>-76.882706999999996</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>45442</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18">
-      <c r="A14" s="1">
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>41.486063999999999</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>-75.731083999999996</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>45435</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18">
-      <c r="A15" s="1">
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <v>42.505361000000001</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-74.975570000000005</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>45443</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18">
-      <c r="E16" s="3"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
+    <row r="16" spans="1:8">
+      <c r="E16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2">
+        <v>39.857290999999996</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-83.022433000000007</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45463</v>
+      </c>
+      <c r="H17" s="3">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="3">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>41.597422999999999</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-80.538070000000005</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45461</v>
+      </c>
+      <c r="H18" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="3">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>42.088512000000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-78.561786999999995</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45460</v>
+      </c>
+      <c r="H19" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="3">
+        <v>17</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2">
+        <v>41.881267999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-80.138642000000004</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45464</v>
+      </c>
+      <c r="H20" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="3">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44.481127999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-73.225581000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="3">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2">
+        <v>47.616047999999999</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-68.793222999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="3">
+        <v>20</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="2">
+        <v>43.490426999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-74.406566999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="3">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
+        <v>42.555191999999998</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-71.368792999999997</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45469</v>
+      </c>
+      <c r="H26" s="3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2">
+        <v>42.575761</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-71.744838000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2">
+        <v>42.465232999999998</v>
+      </c>
+      <c r="F28" s="1">
+        <v>-73.281081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="4">
-        <v>39.857290999999996</v>
-      </c>
-      <c r="F17" s="2">
-        <v>-83.022433000000007</v>
-      </c>
-      <c r="G17" s="5">
-        <v>45463</v>
-      </c>
-      <c r="H17" s="1">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
+      <c r="D29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2">
+        <v>42.529615</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-72.798174000000003</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="3">
+        <v>23</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2">
+        <v>42.464753999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-71.153582</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="3">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2">
+        <v>42.025022</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-70.829712000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="3">
+        <v>25</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2">
+        <v>41.775934999999997</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-72.528583999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3">
+        <v>26</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2">
+        <v>41.953319999999998</v>
+      </c>
+      <c r="F34" s="1">
+        <v>-71.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3">
+        <v>27</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2">
+        <v>41.501545</v>
+      </c>
+      <c r="F35" s="1">
+        <v>-72.225506999999993</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="3">
+        <v>28</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="2">
+        <v>41.342627</v>
+      </c>
+      <c r="F36" s="1">
+        <v>-73.510311000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="3">
+        <v>29</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="4">
-        <v>41.597422999999999</v>
-      </c>
-      <c r="F18" s="2">
-        <v>-80.538070000000005</v>
-      </c>
-      <c r="G18" s="5">
-        <v>45461</v>
-      </c>
-      <c r="H18" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E38" s="2">
+        <v>42.934218999999999</v>
+      </c>
+      <c r="F38" s="1">
+        <v>-73.790290999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="3">
+        <v>30</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="4">
-        <v>42.088512000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <v>-78.561786999999995</v>
-      </c>
-      <c r="G19" s="5">
-        <v>45460</v>
-      </c>
-      <c r="H19" s="1">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E39" s="2">
+        <v>42.878841000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>-75.574505000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3">
+        <v>31</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="2">
+        <v>42.450108999999998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>-75.058643000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3">
+        <v>32</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41.217438000000001</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-74.298657000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="3">
+        <v>33</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="4">
-        <v>41.881267999999999</v>
-      </c>
-      <c r="F20" s="2">
-        <v>-80.138642000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4">
-        <v>43.075364999999998</v>
-      </c>
-      <c r="F21" s="2">
-        <v>-76.743555999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>20</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="4">
-        <v>44.481127999999998</v>
-      </c>
-      <c r="F23" s="2">
-        <v>-73.225581000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="4">
-        <v>47.616047999999999</v>
-      </c>
-      <c r="F24" s="2">
-        <v>-68.793222999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>22</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4">
-        <v>43.490426999999997</v>
-      </c>
-      <c r="F25" s="2">
-        <v>-74.406566999999995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>23</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="4">
-        <v>42.575761</v>
-      </c>
-      <c r="F27" s="2">
-        <v>-71.744838000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>24</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="4">
-        <v>42.465232999999998</v>
-      </c>
-      <c r="F28" s="2">
-        <v>-73.281081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18">
-      <c r="A29" s="1">
-        <v>25</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="3">
-        <v>42.464753999999999</v>
-      </c>
-      <c r="F29" s="2">
-        <v>-71.153582</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="E42" s="2">
+        <v>41.158898000000001</v>
+      </c>
+      <c r="F42" s="1">
+        <v>-78.841496000000006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3">
         <v>34</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="4">
-        <v>42.025022</v>
-      </c>
-      <c r="F30" s="2">
-        <v>-70.829712000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>27</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4">
-        <v>41.775934999999997</v>
-      </c>
-      <c r="F32" s="2">
-        <v>-72.528583999999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1">
-        <v>28</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="4">
-        <v>41.953319999999998</v>
-      </c>
-      <c r="F33" s="2">
-        <v>-71.900000000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="1">
-        <v>29</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="4">
-        <v>41.501545</v>
-      </c>
-      <c r="F34" s="2">
-        <v>-72.225506999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="1">
-        <v>30</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="4">
-        <v>41.342627</v>
-      </c>
-      <c r="F35" s="2">
-        <v>-73.510311000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="1">
-        <v>31</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="B43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="4">
-        <v>42.934218999999999</v>
-      </c>
-      <c r="F37" s="2">
-        <v>-73.790290999999996</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1">
-        <v>32</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="4">
-        <v>42.878841000000001</v>
-      </c>
-      <c r="F38" s="2">
-        <v>-75.574505000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1">
-        <v>33</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="4">
-        <v>42.450108999999998</v>
-      </c>
-      <c r="F39" s="2">
-        <v>-75.058643000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="1">
-        <v>34</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="4">
-        <v>41.217438000000001</v>
-      </c>
-      <c r="F40" s="2">
-        <v>-74.298657000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1">
-        <v>35</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E41" s="4">
-        <v>41.158898000000001</v>
-      </c>
-      <c r="F41" s="2">
-        <v>-78.841496000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="1">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="4">
+      <c r="E43" s="2">
         <v>41.011890999999999</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F43" s="1">
         <v>-77.671019999999999</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H42">
-    <sortCondition ref="B1:B42"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+    <sortCondition ref="B1:B43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8C8D08-41EC-A34E-B1F2-5946793A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D1374-417A-1945-BF10-397E8D0C5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>site_num</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Lake Onata</t>
   </si>
   <si>
-    <t>Stetson Pond</t>
-  </si>
-  <si>
     <t>Center Springs Pond</t>
   </si>
   <si>
@@ -221,10 +218,22 @@
     <t>Ashefield Lake</t>
   </si>
   <si>
-    <t>MA_C</t>
-  </si>
-  <si>
     <t>Cranberry Bog</t>
+  </si>
+  <si>
+    <t>Monponsett Pond</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Fraser</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Grand Lake, CA</t>
   </si>
 </sst>
 </file>
@@ -621,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -731,7 +740,7 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>11</v>
@@ -794,7 +803,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>7</v>
@@ -820,7 +829,7 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>7</v>
@@ -846,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>8</v>
@@ -872,7 +881,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -898,7 +907,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>12</v>
@@ -924,7 +933,7 @@
         <v>17</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>12</v>
@@ -950,7 +959,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>15</v>
@@ -980,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -1032,7 +1041,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>15</v>
@@ -1058,7 +1067,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>12</v>
@@ -1127,7 +1136,7 @@
         <v>26</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>15</v>
@@ -1147,10 +1156,10 @@
         <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>13</v>
@@ -1173,7 +1182,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>31</v>
@@ -1186,6 +1195,12 @@
       </c>
       <c r="F27" s="1">
         <v>-71.744838000000001</v>
+      </c>
+      <c r="G27" s="4">
+        <v>45470</v>
+      </c>
+      <c r="H27" s="3">
+        <v>24.5</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1193,7 +1208,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>33</v>
@@ -1213,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>13</v>
@@ -1238,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>32</v>
@@ -1258,33 +1273,39 @@
         <v>24</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E31" s="2">
-        <v>42.025022</v>
+        <v>42.006242999999998</v>
       </c>
       <c r="F31" s="1">
-        <v>-70.829712000000001</v>
+        <v>-70.841425999999998</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45471</v>
+      </c>
+      <c r="H31" s="3">
+        <v>26.5</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" s="3">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>14</v>
@@ -1296,15 +1317,15 @@
         <v>-72.528583999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:8">
       <c r="A34" s="3">
         <v>26</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>14</v>
@@ -1316,15 +1337,15 @@
         <v>-71.900000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:8">
       <c r="A35" s="3">
         <v>27</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>14</v>
@@ -1336,15 +1357,15 @@
         <v>-72.225506999999993</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" s="3">
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>14</v>
@@ -1356,18 +1377,18 @@
         <v>-73.510311000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" s="3">
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>15</v>
@@ -1379,15 +1400,15 @@
         <v>-73.790290999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" s="3">
         <v>30</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>15</v>
@@ -1399,15 +1420,15 @@
         <v>-75.574505000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" s="3">
         <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>15</v>
@@ -1419,15 +1440,15 @@
         <v>-75.058643000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:8">
       <c r="A41" s="3">
         <v>32</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>15</v>
@@ -1439,15 +1460,15 @@
         <v>-74.298657000000006</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="3">
         <v>33</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>12</v>
@@ -1459,15 +1480,15 @@
         <v>-78.841496000000006</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" s="3">
         <v>34</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>12</v>
@@ -1477,6 +1498,58 @@
       </c>
       <c r="F43" s="1">
         <v>-77.671019999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3">
+        <v>35</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1">
+        <v>39.943925900000004</v>
+      </c>
+      <c r="F45" s="1">
+        <v>-105.810562</v>
+      </c>
+      <c r="G45" s="4">
+        <v>45489</v>
+      </c>
+      <c r="H45" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="3">
+        <v>36</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E46" s="1">
+        <v>40.250444000000002</v>
+      </c>
+      <c r="F46" s="1">
+        <v>-105.819607</v>
+      </c>
+      <c r="G46" s="4">
+        <v>45490</v>
+      </c>
+      <c r="H46" s="3">
+        <v>17.5</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881D1374-417A-1945-BF10-397E8D0C5EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376A9E0-6052-0D44-BDB0-2BAE8A323AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>site_num</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>Grand Lake, CA</t>
+  </si>
+  <si>
+    <t>Eaglewatch Lake</t>
+  </si>
+  <si>
+    <t>VT</t>
   </si>
 </sst>
 </file>
@@ -630,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1093,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>21</v>
@@ -1106,6 +1112,12 @@
       </c>
       <c r="F22" s="1">
         <v>-73.225581000000005</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45496</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1550,6 +1562,32 @@
       </c>
       <c r="H46" s="3">
         <v>17.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="3">
+        <v>37</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" s="1">
+        <v>39.576931999999999</v>
+      </c>
+      <c r="F47" s="1">
+        <v>-105.042222</v>
+      </c>
+      <c r="G47" s="4">
+        <v>45494</v>
+      </c>
+      <c r="H47" s="3">
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6376A9E0-6052-0D44-BDB0-2BAE8A323AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE3252-C816-E94E-A2C8-F91F5E51B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>site_num</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Lake Temiscouata</t>
   </si>
   <si>
-    <t>Irishtown Reservoir</t>
-  </si>
-  <si>
     <t>Grand Lake</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Horn Pond</t>
   </si>
   <si>
-    <t>Lake Onata</t>
-  </si>
-  <si>
     <t>Center Springs Pond</t>
   </si>
   <si>
@@ -149,36 +143,12 @@
     <t>West Thompson Reservoir</t>
   </si>
   <si>
-    <t>Gardner Lake</t>
-  </si>
-  <si>
     <t>Lake Windwing</t>
   </si>
   <si>
     <t>Sacandaga Lake</t>
   </si>
   <si>
-    <t>Round Lake</t>
-  </si>
-  <si>
-    <t>Leland Pond</t>
-  </si>
-  <si>
-    <t>Neahwa Park</t>
-  </si>
-  <si>
-    <t>Greenwood Lake</t>
-  </si>
-  <si>
-    <t>Kyle Lake</t>
-  </si>
-  <si>
-    <t>Foster Joseph Sayers Reservoir</t>
-  </si>
-  <si>
-    <t>NYPA</t>
-  </si>
-  <si>
     <t>MA_A</t>
   </si>
   <si>
@@ -233,13 +203,28 @@
     <t>Colorado</t>
   </si>
   <si>
-    <t>Grand Lake, CA</t>
-  </si>
-  <si>
     <t>Eaglewatch Lake</t>
   </si>
   <si>
     <t>VT</t>
+  </si>
+  <si>
+    <t>Pontoosuc Lake</t>
+  </si>
+  <si>
+    <t>MA_C</t>
+  </si>
+  <si>
+    <t>Benedict Pond</t>
+  </si>
+  <si>
+    <t>Wilcox Pond</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Bomoseen </t>
   </si>
 </sst>
 </file>
@@ -287,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +286,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -686,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -706,7 +694,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -726,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -746,16 +734,16 @@
         <v>22</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>45.910232999999998</v>
+        <v>46.671587000000002</v>
       </c>
       <c r="F5" s="1">
-        <v>-66.019802999999996</v>
+        <v>-68.002167999999998</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -763,19 +751,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
-        <v>46.143495999999999</v>
+        <v>54</v>
+      </c>
+      <c r="E6" s="1">
+        <v>39.576931999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>-64.768084999999999</v>
+        <v>-105.042222</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45494</v>
+      </c>
+      <c r="H6" s="3">
+        <v>24.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -783,816 +777,704 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="2">
-        <v>46.671587000000002</v>
+        <v>54</v>
+      </c>
+      <c r="E7" s="1">
+        <v>39.943925900000004</v>
       </c>
       <c r="F7" s="1">
-        <v>-68.002167999999998</v>
+        <v>-105.810562</v>
+      </c>
+      <c r="G7" s="4">
+        <v>45489</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="E8" s="2"/>
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1">
+        <v>40.250444000000002</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-105.819607</v>
+      </c>
+      <c r="G8" s="4">
+        <v>45490</v>
+      </c>
+      <c r="H8" s="3">
+        <v>17.5</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
-        <v>35.609053000000003</v>
+        <v>41.379134999999998</v>
       </c>
       <c r="F9" s="1">
-        <v>-82.430564000000004</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45440</v>
-      </c>
-      <c r="H9" s="3">
-        <v>24.5</v>
+        <v>-71.828442999999993</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
-        <v>35.7911644</v>
+        <v>41.775934999999997</v>
       </c>
       <c r="F10" s="1">
-        <v>-77.920331099999999</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45437</v>
-      </c>
-      <c r="H10" s="3">
-        <v>31</v>
+        <v>-72.528583999999995</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>37.015326000000002</v>
+        <v>41.953319999999998</v>
       </c>
       <c r="F11" s="1">
-        <v>-79.879589999999993</v>
-      </c>
-      <c r="G11" s="5">
-        <v>45441</v>
-      </c>
-      <c r="H11" s="3">
-        <v>28</v>
+        <v>-71.900000000000006</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>37.750794999999997</v>
+        <v>42.006242999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>-77.358057000000002</v>
+        <v>-70.841425999999998</v>
       </c>
       <c r="G12" s="4">
-        <v>45436</v>
+        <v>45471</v>
       </c>
       <c r="H12" s="3">
-        <v>27</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>40.083305000000003</v>
+        <v>42.555191999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>-76.882706999999996</v>
+        <v>-71.368792999999997</v>
       </c>
       <c r="G13" s="4">
-        <v>45442</v>
+        <v>45469</v>
       </c>
       <c r="H13" s="3">
-        <v>24</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>41.486063999999999</v>
+        <v>42.575761</v>
       </c>
       <c r="F14" s="1">
-        <v>-75.731083999999996</v>
+        <v>-71.744838000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>45435</v>
+        <v>45470</v>
       </c>
       <c r="H14" s="3">
-        <v>25</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>41.342627</v>
+      </c>
+      <c r="F15" s="1">
+        <v>-73.510311000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="E16" s="6">
+        <v>42.204087000000001</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-73.290063000000004</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>42.487450000000003</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-73.248354000000006</v>
+      </c>
+      <c r="G17" s="4">
+        <v>45507</v>
+      </c>
+      <c r="H17" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2">
+        <v>42.529615</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-72.798174000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43.630119999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-73.233076999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>42.464753999999999</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-71.153582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2">
+        <v>35.609053000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>-82.430564000000004</v>
+      </c>
+      <c r="G21" s="4">
+        <v>45440</v>
+      </c>
+      <c r="H21" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2">
+        <v>35.7911644</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-77.920331099999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45437</v>
+      </c>
+      <c r="H22" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2">
+        <v>37.015326000000002</v>
+      </c>
+      <c r="F23" s="1">
+        <v>-79.879589999999993</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45441</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>37.750794999999997</v>
+      </c>
+      <c r="F24" s="1">
+        <v>-77.358057000000002</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45436</v>
+      </c>
+      <c r="H24" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>40.083305000000003</v>
+      </c>
+      <c r="F25" s="1">
+        <v>-76.882706999999996</v>
+      </c>
+      <c r="G25" s="4">
+        <v>45442</v>
+      </c>
+      <c r="H25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="2">
+        <v>41.486063999999999</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-75.731083999999996</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45435</v>
+      </c>
+      <c r="H26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E27" s="2">
         <v>42.505361000000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F27" s="1">
         <v>-74.975570000000005</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G27" s="4">
         <v>45443</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="E16" s="2"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="3">
-        <v>14</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E28" s="2">
         <v>39.857290999999996</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F28" s="1">
         <v>-83.022433000000007</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G28" s="4">
         <v>45463</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H28" s="3">
         <v>23.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="3">
+    <row r="29" spans="1:8">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2">
+        <v>41.597422999999999</v>
+      </c>
+      <c r="F29" s="1">
+        <v>-80.538070000000005</v>
+      </c>
+      <c r="G29" s="4">
+        <v>45461</v>
+      </c>
+      <c r="H29" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>41.881267999999999</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-80.138642000000004</v>
+      </c>
+      <c r="G30" s="4">
+        <v>45464</v>
+      </c>
+      <c r="H30" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2">
-        <v>41.597422999999999</v>
-      </c>
-      <c r="F18" s="1">
-        <v>-80.538070000000005</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45461</v>
-      </c>
-      <c r="H18" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="3">
-        <v>16</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E31" s="2">
+        <v>42.088512000000001</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-78.561786999999995</v>
+      </c>
+      <c r="G31" s="4">
+        <v>45460</v>
+      </c>
+      <c r="H31" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="2">
-        <v>42.088512000000001</v>
-      </c>
-      <c r="F19" s="1">
-        <v>-78.561786999999995</v>
-      </c>
-      <c r="G19" s="4">
-        <v>45460</v>
-      </c>
-      <c r="H19" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="3">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>41.881267999999999</v>
-      </c>
-      <c r="F20" s="1">
-        <v>-80.138642000000004</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45464</v>
-      </c>
-      <c r="H20" s="3">
-        <v>28.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="3">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="2">
-        <v>44.481127999999998</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-73.225581000000005</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45496</v>
-      </c>
-      <c r="H22" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="3">
-        <v>19</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="E32" s="2">
+        <v>43.490426999999997</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-74.406566999999995</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45154</v>
+      </c>
+      <c r="H32" s="3">
         <v>23</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2">
-        <v>47.616047999999999</v>
-      </c>
-      <c r="F23" s="1">
-        <v>-68.793222999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2">
-        <v>43.490426999999997</v>
-      </c>
-      <c r="F24" s="1">
-        <v>-74.406566999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2">
-        <v>42.555191999999998</v>
-      </c>
-      <c r="F26" s="1">
-        <v>-71.368792999999997</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45469</v>
-      </c>
-      <c r="H26" s="3">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="3">
-        <v>21</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2">
-        <v>42.575761</v>
-      </c>
-      <c r="F27" s="1">
-        <v>-71.744838000000001</v>
-      </c>
-      <c r="G27" s="4">
-        <v>45470</v>
-      </c>
-      <c r="H27" s="3">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="3">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2">
-        <v>42.465232999999998</v>
-      </c>
-      <c r="F28" s="1">
-        <v>-73.281081</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="3">
-        <v>23</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="2">
-        <v>42.529615</v>
-      </c>
-      <c r="F29" s="1">
-        <v>-72.798174000000003</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="3">
-        <v>23</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="2">
-        <v>42.464753999999999</v>
-      </c>
-      <c r="F30" s="1">
-        <v>-71.153582</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="3">
-        <v>24</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="2">
-        <v>42.006242999999998</v>
-      </c>
-      <c r="F31" s="1">
-        <v>-70.841425999999998</v>
-      </c>
-      <c r="G31" s="4">
-        <v>45471</v>
-      </c>
-      <c r="H31" s="3">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="C33" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E33" s="2">
-        <v>41.775934999999997</v>
+        <v>47.616047999999999</v>
       </c>
       <c r="F33" s="1">
-        <v>-72.528583999999995</v>
+        <v>-68.793222999999998</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45179</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E34" s="2">
-        <v>41.953319999999998</v>
+        <v>44.481127999999998</v>
       </c>
       <c r="F34" s="1">
-        <v>-71.900000000000006</v>
+        <v>-73.225581000000005</v>
+      </c>
+      <c r="G34" s="4">
+        <v>45496</v>
+      </c>
+      <c r="H34" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="3">
-        <v>27</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2">
-        <v>41.501545</v>
-      </c>
-      <c r="F35" s="1">
-        <v>-72.225506999999993</v>
-      </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="3">
-        <v>28</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2">
-        <v>41.342627</v>
-      </c>
-      <c r="F36" s="1">
-        <v>-73.510311000000002</v>
-      </c>
+      <c r="E36" s="2"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:8">
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3">
-        <v>29</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E38" s="2">
-        <v>42.934218999999999</v>
-      </c>
-      <c r="F38" s="1">
-        <v>-73.790290999999996</v>
-      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="3">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="2">
-        <v>42.878841000000001</v>
-      </c>
-      <c r="F39" s="1">
-        <v>-75.574505000000002</v>
-      </c>
+      <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="3">
-        <v>31</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E40" s="2">
-        <v>42.450108999999998</v>
-      </c>
-      <c r="F40" s="1">
-        <v>-75.058643000000004</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="3">
-        <v>32</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="2">
-        <v>41.217438000000001</v>
-      </c>
-      <c r="F41" s="1">
-        <v>-74.298657000000006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="3">
-        <v>33</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="2">
-        <v>41.158898000000001</v>
-      </c>
-      <c r="F42" s="1">
-        <v>-78.841496000000006</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="3">
-        <v>34</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="2">
-        <v>41.011890999999999</v>
-      </c>
-      <c r="F43" s="1">
-        <v>-77.671019999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="3">
-        <v>35</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="1">
-        <v>39.943925900000004</v>
-      </c>
-      <c r="F45" s="1">
-        <v>-105.810562</v>
-      </c>
-      <c r="G45" s="4">
-        <v>45489</v>
-      </c>
-      <c r="H45" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="3">
-        <v>36</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E46" s="1">
-        <v>40.250444000000002</v>
-      </c>
-      <c r="F46" s="1">
-        <v>-105.819607</v>
-      </c>
-      <c r="G46" s="4">
-        <v>45490</v>
-      </c>
-      <c r="H46" s="3">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="3">
-        <v>37</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E47" s="1">
-        <v>39.576931999999999</v>
-      </c>
-      <c r="F47" s="1">
-        <v>-105.042222</v>
-      </c>
-      <c r="G47" s="4">
-        <v>45494</v>
-      </c>
-      <c r="H47" s="3">
-        <v>24.5</v>
-      </c>
+      <c r="E40" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
-    <sortCondition ref="B1:B43"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBE3252-C816-E94E-A2C8-F91F5E51B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9CB0C-5343-764A-A08C-EC2E4696B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Ochsner Pond</t>
   </si>
   <si>
-    <t>Ashefield Lake</t>
-  </si>
-  <si>
     <t>Cranberry Bog</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lake Bomoseen </t>
+  </si>
+  <si>
+    <t>Pelham Lake</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1">
         <v>39.576931999999999</v>
@@ -777,13 +777,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="E7" s="1">
         <v>39.943925900000004</v>
@@ -803,13 +803,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1">
         <v>40.250444000000002</v>
@@ -832,10 +832,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>41.379134999999998</v>
@@ -892,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
@@ -918,7 +918,7 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
@@ -990,7 +990,7 @@
         <v>38</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -1001,7 +1001,12 @@
       <c r="F16" s="1">
         <v>-73.290063000000004</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4">
+        <v>45508</v>
+      </c>
+      <c r="H16" s="3">
+        <v>28.5</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
@@ -1011,7 +1016,7 @@
         <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -1037,16 +1042,22 @@
         <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>42.529615</v>
+        <v>42.700695000000003</v>
       </c>
       <c r="F18" s="1">
-        <v>-72.798174000000003</v>
+        <v>-72.886409</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45509</v>
+      </c>
+      <c r="H18" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1057,7 +1068,7 @@
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>20</v>
@@ -1074,7 +1085,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>31</v>
@@ -1432,7 +1443,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>21</v>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E9CB0C-5343-764A-A08C-EC2E4696B92E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B2BF8-ED10-334E-ADB5-69C691F08B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>site_num</t>
   </si>
@@ -143,9 +143,6 @@
     <t>West Thompson Reservoir</t>
   </si>
   <si>
-    <t>Lake Windwing</t>
-  </si>
-  <si>
     <t>Sacandaga Lake</t>
   </si>
   <si>
@@ -221,10 +218,10 @@
     <t>Rhode Island</t>
   </si>
   <si>
-    <t xml:space="preserve">Lake Bomoseen </t>
-  </si>
-  <si>
     <t>Pelham Lake</t>
+  </si>
+  <si>
+    <t>Canterbury Pond</t>
   </si>
 </sst>
 </file>
@@ -624,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -751,13 +748,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1">
         <v>39.576931999999999</v>
@@ -777,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="E7" s="1">
         <v>39.943925900000004</v>
@@ -803,13 +800,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1">
         <v>40.250444000000002</v>
@@ -832,10 +829,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E9" s="2">
         <v>41.379134999999998</v>
@@ -889,10 +886,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
@@ -915,10 +912,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
@@ -941,7 +938,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>30</v>
@@ -967,19 +964,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>41.342627</v>
+        <v>41.591059600000001</v>
       </c>
       <c r="F15" s="1">
-        <v>-73.510311000000002</v>
+        <v>-73.406449199999997</v>
+      </c>
+      <c r="G15" s="4">
+        <v>45510</v>
+      </c>
+      <c r="H15" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -987,10 +990,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>13</v>
@@ -1013,10 +1016,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -1039,10 +1042,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
@@ -1065,19 +1068,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>43.630119999999998</v>
+        <v>42.464753999999999</v>
       </c>
       <c r="F19" s="1">
-        <v>-73.233076999999994</v>
+        <v>-71.153582</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1085,19 +1088,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
-        <v>42.464753999999999</v>
+        <v>35.609053000000003</v>
       </c>
       <c r="F20" s="1">
-        <v>-71.153582</v>
+        <v>-82.430564000000004</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45440</v>
+      </c>
+      <c r="H20" s="3">
+        <v>24.5</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1108,22 +1117,22 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2">
-        <v>35.609053000000003</v>
+        <v>35.7911644</v>
       </c>
       <c r="F21" s="1">
-        <v>-82.430564000000004</v>
+        <v>-77.920331099999999</v>
       </c>
       <c r="G21" s="4">
-        <v>45440</v>
+        <v>45437</v>
       </c>
       <c r="H21" s="3">
-        <v>24.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1134,22 +1143,22 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
-        <v>35.7911644</v>
+        <v>37.015326000000002</v>
       </c>
       <c r="F22" s="1">
-        <v>-77.920331099999999</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45437</v>
+        <v>-79.879589999999993</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45441</v>
       </c>
       <c r="H22" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1160,22 +1169,22 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2">
-        <v>37.015326000000002</v>
+        <v>37.750794999999997</v>
       </c>
       <c r="F23" s="1">
-        <v>-79.879589999999993</v>
-      </c>
-      <c r="G23" s="5">
-        <v>45441</v>
+        <v>-77.358057000000002</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45436</v>
       </c>
       <c r="H23" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1186,22 +1195,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>37.750794999999997</v>
+        <v>40.083305000000003</v>
       </c>
       <c r="F24" s="1">
-        <v>-77.358057000000002</v>
+        <v>-76.882706999999996</v>
       </c>
       <c r="G24" s="4">
-        <v>45436</v>
+        <v>45442</v>
       </c>
       <c r="H24" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1212,22 +1221,22 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2">
-        <v>40.083305000000003</v>
+        <v>41.486063999999999</v>
       </c>
       <c r="F25" s="1">
-        <v>-76.882706999999996</v>
+        <v>-75.731083999999996</v>
       </c>
       <c r="G25" s="4">
-        <v>45442</v>
+        <v>45435</v>
       </c>
       <c r="H25" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1238,22 +1247,22 @@
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E26" s="2">
-        <v>41.486063999999999</v>
+        <v>42.505361000000001</v>
       </c>
       <c r="F26" s="1">
-        <v>-75.731083999999996</v>
+        <v>-74.975570000000005</v>
       </c>
       <c r="G26" s="4">
-        <v>45435</v>
+        <v>45443</v>
       </c>
       <c r="H26" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1261,25 +1270,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>42.505361000000001</v>
+        <v>39.857290999999996</v>
       </c>
       <c r="F27" s="1">
-        <v>-74.975570000000005</v>
+        <v>-83.022433000000007</v>
       </c>
       <c r="G27" s="4">
-        <v>45443</v>
+        <v>45463</v>
       </c>
       <c r="H27" s="3">
-        <v>20</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1290,22 +1299,22 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>39.857290999999996</v>
+        <v>41.597422999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>-83.022433000000007</v>
+        <v>-80.538070000000005</v>
       </c>
       <c r="G28" s="4">
-        <v>45463</v>
+        <v>45461</v>
       </c>
       <c r="H28" s="3">
-        <v>23.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1316,22 +1325,22 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2">
-        <v>41.597422999999999</v>
+        <v>41.881267999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>-80.538070000000005</v>
+        <v>-80.138642000000004</v>
       </c>
       <c r="G29" s="4">
-        <v>45461</v>
+        <v>45464</v>
       </c>
       <c r="H29" s="3">
-        <v>27</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1345,16 +1354,16 @@
         <v>46</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
-        <v>41.881267999999999</v>
+        <v>42.088512000000001</v>
       </c>
       <c r="F30" s="1">
-        <v>-80.138642000000004</v>
+        <v>-78.561786999999995</v>
       </c>
       <c r="G30" s="4">
-        <v>45464</v>
+        <v>45460</v>
       </c>
       <c r="H30" s="3">
         <v>28.5</v>
@@ -1365,25 +1374,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
-        <v>42.088512000000001</v>
+        <v>43.490426999999997</v>
       </c>
       <c r="F31" s="1">
-        <v>-78.561786999999995</v>
+        <v>-74.406566999999995</v>
       </c>
       <c r="G31" s="4">
-        <v>45460</v>
+        <v>45154</v>
       </c>
       <c r="H31" s="3">
-        <v>28.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1394,22 +1403,22 @@
         <v>25</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2">
-        <v>43.490426999999997</v>
+        <v>47.616047999999999</v>
       </c>
       <c r="F32" s="1">
-        <v>-74.406566999999995</v>
+        <v>-68.793222999999998</v>
       </c>
       <c r="G32" s="4">
-        <v>45154</v>
+        <v>45179</v>
       </c>
       <c r="H32" s="3">
-        <v>23</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1417,59 +1426,36 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2">
-        <v>47.616047999999999</v>
+        <v>44.481127999999998</v>
       </c>
       <c r="F33" s="1">
-        <v>-68.793222999999998</v>
+        <v>-73.225581000000005</v>
       </c>
       <c r="G33" s="4">
-        <v>45179</v>
+        <v>45496</v>
       </c>
       <c r="H33" s="3">
-        <v>20.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44.481127999999998</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-73.225581000000005</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45496</v>
-      </c>
-      <c r="H34" s="3">
-        <v>28</v>
-      </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="E35" s="2"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:8">
       <c r="E36" s="2"/>
-      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:8">
       <c r="E37" s="2"/>
@@ -1480,12 +1466,9 @@
     <row r="39" spans="1:8">
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:8">
-      <c r="E40" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H40">
-    <sortCondition ref="B1:B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
+    <sortCondition ref="B1:B39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B2BF8-ED10-334E-ADB5-69C691F08B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363ACB10-13E3-B540-9F59-0675F147A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>site_num</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Lake Champlain</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Lake Temiscouata</t>
   </si>
   <si>
@@ -222,6 +219,12 @@
   </si>
   <si>
     <t>Canterbury Pond</t>
+  </si>
+  <si>
+    <t>Unity Pond</t>
+  </si>
+  <si>
+    <t>ME</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -664,31 +667,31 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
-        <v>44.511474</v>
+      <c r="E2" s="1">
+        <v>44.627958</v>
       </c>
       <c r="F2" s="1">
-        <v>-69.911663000000004</v>
+        <v>-69.342478999999997</v>
+      </c>
+      <c r="G2" s="4">
+        <v>45526</v>
+      </c>
+      <c r="H2" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>27</v>
@@ -697,222 +700,216 @@
         <v>10</v>
       </c>
       <c r="E3" s="2">
-        <v>44.595843000000002</v>
+        <v>44.511474</v>
       </c>
       <c r="F3" s="1">
-        <v>-68.567042000000001</v>
+        <v>-69.911663000000004</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2">
-        <v>45.677449000000003</v>
+        <v>44.595843000000002</v>
       </c>
       <c r="F4" s="1">
-        <v>-69.737115000000003</v>
+        <v>-68.567042000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
-        <v>46.671587000000002</v>
+        <v>45.677478000000001</v>
       </c>
       <c r="F5" s="1">
-        <v>-68.002167999999998</v>
+        <v>-69.737171000000004</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45527</v>
+      </c>
+      <c r="H5" s="3">
+        <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1">
-        <v>39.576931999999999</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>46.671587000000002</v>
       </c>
       <c r="F6" s="1">
-        <v>-105.042222</v>
-      </c>
-      <c r="G6" s="4">
-        <v>45494</v>
-      </c>
-      <c r="H6" s="3">
-        <v>24.5</v>
+        <v>-68.002167999999998</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="1">
-        <v>39.943925900000004</v>
+        <v>39.576931999999999</v>
       </c>
       <c r="F7" s="1">
-        <v>-105.810562</v>
+        <v>-105.042222</v>
       </c>
       <c r="G7" s="4">
-        <v>45489</v>
+        <v>45494</v>
       </c>
       <c r="H7" s="3">
-        <v>19</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="1">
-        <v>40.250444000000002</v>
+        <v>39.943925900000004</v>
       </c>
       <c r="F8" s="1">
-        <v>-105.819607</v>
+        <v>-105.810562</v>
       </c>
       <c r="G8" s="4">
-        <v>45490</v>
+        <v>45489</v>
       </c>
       <c r="H8" s="3">
-        <v>17.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2">
-        <v>41.379134999999998</v>
+        <v>51</v>
+      </c>
+      <c r="E9" s="1">
+        <v>40.250444000000002</v>
       </c>
       <c r="F9" s="1">
-        <v>-71.828442999999993</v>
+        <v>-105.819607</v>
+      </c>
+      <c r="G9" s="4">
+        <v>45490</v>
+      </c>
+      <c r="H9" s="3">
+        <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2">
-        <v>41.775934999999997</v>
+        <v>41.379134999999998</v>
       </c>
       <c r="F10" s="1">
-        <v>-72.528583999999995</v>
+        <v>-71.828442999999993</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>41.953319999999998</v>
+        <v>41.775934999999997</v>
       </c>
       <c r="F11" s="1">
-        <v>-71.900000000000006</v>
+        <v>-72.528583999999995</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="2">
-        <v>42.006242999999998</v>
+        <v>41.953319999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>-70.841425999999998</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45471</v>
-      </c>
-      <c r="H12" s="3">
-        <v>26.5</v>
+        <v>-71.900000000000006</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>48</v>
@@ -921,449 +918,449 @@
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>42.555191999999998</v>
+        <v>42.006242999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>-71.368792999999997</v>
+        <v>-70.841425999999998</v>
       </c>
       <c r="G13" s="4">
-        <v>45469</v>
+        <v>45471</v>
       </c>
       <c r="H13" s="3">
-        <v>27.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>42.575761</v>
+        <v>42.555191999999998</v>
       </c>
       <c r="F14" s="1">
-        <v>-71.744838000000001</v>
+        <v>-71.368792999999997</v>
       </c>
       <c r="G14" s="4">
-        <v>45470</v>
+        <v>45469</v>
       </c>
       <c r="H14" s="3">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="2">
-        <v>41.591059600000001</v>
+        <v>42.575761</v>
       </c>
       <c r="F15" s="1">
-        <v>-73.406449199999997</v>
+        <v>-71.744838000000001</v>
       </c>
       <c r="G15" s="4">
-        <v>45510</v>
+        <v>45470</v>
       </c>
       <c r="H15" s="3">
-        <v>31</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6">
-        <v>42.204087000000001</v>
+        <v>14</v>
+      </c>
+      <c r="E16" s="2">
+        <v>41.591059600000001</v>
       </c>
       <c r="F16" s="1">
-        <v>-73.290063000000004</v>
+        <v>-73.406449199999997</v>
       </c>
       <c r="G16" s="4">
-        <v>45508</v>
+        <v>45510</v>
       </c>
       <c r="H16" s="3">
-        <v>28.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="2">
-        <v>42.487450000000003</v>
+      <c r="E17" s="6">
+        <v>42.204087000000001</v>
       </c>
       <c r="F17" s="1">
-        <v>-73.248354000000006</v>
+        <v>-73.290063000000004</v>
       </c>
       <c r="G17" s="4">
-        <v>45507</v>
+        <v>45508</v>
       </c>
       <c r="H17" s="3">
-        <v>29</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>42.700695000000003</v>
+        <v>42.487450000000003</v>
       </c>
       <c r="F18" s="1">
-        <v>-72.886409</v>
+        <v>-73.248354000000006</v>
       </c>
       <c r="G18" s="4">
-        <v>45509</v>
+        <v>45507</v>
       </c>
       <c r="H18" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2">
-        <v>42.464753999999999</v>
+        <v>42.700695000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>-71.153582</v>
+        <v>-72.886409</v>
+      </c>
+      <c r="G19" s="4">
+        <v>45509</v>
+      </c>
+      <c r="H19" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20" s="2">
-        <v>35.609053000000003</v>
+        <v>42.464753999999999</v>
       </c>
       <c r="F20" s="1">
-        <v>-82.430564000000004</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45440</v>
-      </c>
-      <c r="H20" s="3">
-        <v>24.5</v>
+        <v>-71.153582</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2">
-        <v>35.7911644</v>
+        <v>35.609053000000003</v>
       </c>
       <c r="F21" s="1">
-        <v>-77.920331099999999</v>
+        <v>-82.430564000000004</v>
       </c>
       <c r="G21" s="4">
-        <v>45437</v>
+        <v>45440</v>
       </c>
       <c r="H21" s="3">
-        <v>31</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2">
-        <v>37.015326000000002</v>
+        <v>35.7911644</v>
       </c>
       <c r="F22" s="1">
-        <v>-79.879589999999993</v>
-      </c>
-      <c r="G22" s="5">
-        <v>45441</v>
+        <v>-77.920331099999999</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45437</v>
       </c>
       <c r="H22" s="3">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2">
-        <v>37.750794999999997</v>
+        <v>37.015326000000002</v>
       </c>
       <c r="F23" s="1">
-        <v>-77.358057000000002</v>
-      </c>
-      <c r="G23" s="4">
-        <v>45436</v>
+        <v>-79.879589999999993</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45441</v>
       </c>
       <c r="H23" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E24" s="2">
-        <v>40.083305000000003</v>
+        <v>37.750794999999997</v>
       </c>
       <c r="F24" s="1">
-        <v>-76.882706999999996</v>
+        <v>-77.358057000000002</v>
       </c>
       <c r="G24" s="4">
-        <v>45442</v>
+        <v>45436</v>
       </c>
       <c r="H24" s="3">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2">
-        <v>41.486063999999999</v>
+        <v>40.083305000000003</v>
       </c>
       <c r="F25" s="1">
-        <v>-75.731083999999996</v>
+        <v>-76.882706999999996</v>
       </c>
       <c r="G25" s="4">
-        <v>45435</v>
+        <v>45442</v>
       </c>
       <c r="H25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" s="2">
-        <v>42.505361000000001</v>
+        <v>41.486063999999999</v>
       </c>
       <c r="F26" s="1">
-        <v>-74.975570000000005</v>
+        <v>-75.731083999999996</v>
       </c>
       <c r="G26" s="4">
-        <v>45443</v>
+        <v>45435</v>
       </c>
       <c r="H26" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2">
-        <v>39.857290999999996</v>
+        <v>42.505361000000001</v>
       </c>
       <c r="F27" s="1">
-        <v>-83.022433000000007</v>
+        <v>-74.975570000000005</v>
       </c>
       <c r="G27" s="4">
-        <v>45463</v>
+        <v>45443</v>
       </c>
       <c r="H27" s="3">
-        <v>23.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
-        <v>41.597422999999999</v>
+        <v>39.857290999999996</v>
       </c>
       <c r="F28" s="1">
-        <v>-80.538070000000005</v>
+        <v>-83.022433000000007</v>
       </c>
       <c r="G28" s="4">
-        <v>45461</v>
+        <v>45463</v>
       </c>
       <c r="H28" s="3">
-        <v>27</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2">
-        <v>41.881267999999999</v>
+        <v>41.597422999999999</v>
       </c>
       <c r="F29" s="1">
-        <v>-80.138642000000004</v>
+        <v>-80.538070000000005</v>
       </c>
       <c r="G29" s="4">
-        <v>45464</v>
+        <v>45461</v>
       </c>
       <c r="H29" s="3">
-        <v>28.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2">
-        <v>42.088512000000001</v>
+        <v>41.881267999999999</v>
       </c>
       <c r="F30" s="1">
-        <v>-78.561786999999995</v>
+        <v>-80.138642000000004</v>
       </c>
       <c r="G30" s="4">
-        <v>45460</v>
+        <v>45464</v>
       </c>
       <c r="H30" s="3">
         <v>28.5</v>
@@ -1371,91 +1368,114 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
-        <v>43.490426999999997</v>
+        <v>42.088512000000001</v>
       </c>
       <c r="F31" s="1">
-        <v>-74.406566999999995</v>
+        <v>-78.561786999999995</v>
       </c>
       <c r="G31" s="4">
-        <v>45154</v>
+        <v>45460</v>
       </c>
       <c r="H31" s="3">
-        <v>23</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="2">
+        <v>43.490426999999997</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-74.406566999999995</v>
+      </c>
+      <c r="G32" s="4">
+        <v>45154</v>
+      </c>
+      <c r="H32" s="3">
         <v>23</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="2">
-        <v>47.616047999999999</v>
-      </c>
-      <c r="F32" s="1">
-        <v>-68.793222999999998</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45179</v>
-      </c>
-      <c r="H32" s="3">
-        <v>20.5</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="2">
+        <v>47.616047999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-68.793222999999998</v>
+      </c>
+      <c r="G33" s="4">
+        <v>45179</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E34" s="2">
         <v>44.481127999999998</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F34" s="1">
         <v>-73.225581000000005</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <v>45496</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H34" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="E35" s="2"/>
-      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:8">
       <c r="E36" s="2"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:8">
       <c r="E37" s="2"/>
@@ -1466,9 +1486,12 @@
     <row r="39" spans="1:8">
       <c r="E39" s="2"/>
     </row>
+    <row r="40" spans="1:8">
+      <c r="E40" s="2"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H39">
-    <sortCondition ref="B1:B39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H40">
+    <sortCondition ref="B1:B40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363ACB10-13E3-B540-9F59-0675F147A0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A565848-75BA-694A-9BDB-D4D4F3B02202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>site_num</t>
   </si>
@@ -113,12 +113,6 @@
     <t>past</t>
   </si>
   <si>
-    <t>Mantle Lake</t>
-  </si>
-  <si>
-    <t>Branch Lake</t>
-  </si>
-  <si>
     <t>Long Pond</t>
   </si>
   <si>
@@ -225,6 +219,12 @@
   </si>
   <si>
     <t>ME</t>
+  </si>
+  <si>
+    <t>Meduxnekeag Lake</t>
+  </si>
+  <si>
+    <t>Deering Oaks Pond</t>
   </si>
 </sst>
 </file>
@@ -272,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,11 +284,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,7 +633,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -641,16 +647,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -659,21 +665,24 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="B2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1">
@@ -682,21 +691,24 @@
       <c r="F2" s="1">
         <v>-69.342478999999997</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>45526</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2">
@@ -705,35 +717,42 @@
       <c r="F3" s="1">
         <v>-69.911663000000004</v>
       </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>43.658537000000003</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-70.270062999999993</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>44.595843000000002</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-68.567042000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2">
@@ -742,42 +761,51 @@
       <c r="F5" s="1">
         <v>-69.737171000000004</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>45527</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="6">
         <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2">
+        <v>46.098498999999997</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-68.003449000000003</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45528</v>
+      </c>
+      <c r="H6" s="6">
         <v>25</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>46.671587000000002</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-68.002167999999998</v>
-      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E7" s="1">
         <v>39.576931999999999</v>
@@ -785,25 +813,25 @@
       <c r="F7" s="1">
         <v>-105.042222</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="7">
         <v>45494</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="6">
         <v>24.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E8" s="1">
         <v>39.943925900000004</v>
@@ -811,25 +839,25 @@
       <c r="F8" s="1">
         <v>-105.810562</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="7">
         <v>45489</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="6">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="E9" s="1">
         <v>40.250444000000002</v>
@@ -837,25 +865,25 @@
       <c r="F9" s="1">
         <v>-105.819607</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="7">
         <v>45490</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="6">
         <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>58</v>
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="E10" s="2">
         <v>41.379134999999998</v>
@@ -863,18 +891,20 @@
       <c r="F10" s="1">
         <v>-71.828442999999993</v>
       </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2">
@@ -883,18 +913,20 @@
       <c r="F11" s="1">
         <v>-72.528583999999995</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2">
@@ -903,18 +935,20 @@
       <c r="F12" s="1">
         <v>-71.900000000000006</v>
       </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2">
@@ -923,24 +957,24 @@
       <c r="F13" s="1">
         <v>-70.841425999999998</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="7">
         <v>45471</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
         <v>26.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2">
@@ -949,24 +983,24 @@
       <c r="F14" s="1">
         <v>-71.368792999999997</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="7">
         <v>45469</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
         <v>27.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
@@ -975,24 +1009,24 @@
       <c r="F15" s="1">
         <v>-71.744838000000001</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="7">
         <v>45470</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="6">
         <v>24.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2">
@@ -1001,50 +1035,50 @@
       <c r="F16" s="1">
         <v>-73.406449199999997</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="7">
         <v>45510</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>42.204087000000001</v>
       </c>
       <c r="F17" s="1">
         <v>-73.290063000000004</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="7">
         <v>45508</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
         <v>28.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
@@ -1053,24 +1087,24 @@
       <c r="F18" s="1">
         <v>-73.248354000000006</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="7">
         <v>45507</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="6">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2">
@@ -1079,24 +1113,24 @@
       <c r="F19" s="1">
         <v>-72.886409</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="7">
         <v>45509</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="3" t="s">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2">
@@ -1105,18 +1139,20 @@
       <c r="F20" s="1">
         <v>-71.153582</v>
       </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2">
@@ -1125,24 +1161,24 @@
       <c r="F21" s="1">
         <v>-82.430564000000004</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="7">
         <v>45440</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
         <v>24.5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2">
@@ -1151,24 +1187,24 @@
       <c r="F22" s="1">
         <v>-77.920331099999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="7">
         <v>45437</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="C23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2">
@@ -1177,24 +1213,24 @@
       <c r="F23" s="1">
         <v>-79.879589999999993</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="8">
         <v>45441</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="6">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="3" t="s">
+      <c r="C24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2">
@@ -1203,24 +1239,24 @@
       <c r="F24" s="1">
         <v>-77.358057000000002</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="7">
         <v>45436</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="C25" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2">
@@ -1229,24 +1265,24 @@
       <c r="F25" s="1">
         <v>-76.882706999999996</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="7">
         <v>45442</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="3" t="s">
+      <c r="C26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2">
@@ -1255,24 +1291,24 @@
       <c r="F26" s="1">
         <v>-75.731083999999996</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="7">
         <v>45435</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2">
@@ -1281,24 +1317,24 @@
       <c r="F27" s="1">
         <v>-74.975570000000005</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="7">
         <v>45443</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="C28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
@@ -1307,24 +1343,24 @@
       <c r="F28" s="1">
         <v>-83.022433000000007</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="7">
         <v>45463</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="6">
         <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2">
@@ -1333,24 +1369,24 @@
       <c r="F29" s="1">
         <v>-80.538070000000005</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="7">
         <v>45461</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2">
@@ -1359,24 +1395,24 @@
       <c r="F30" s="1">
         <v>-80.138642000000004</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="7">
         <v>45464</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="6">
         <v>28.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
@@ -1385,24 +1421,24 @@
       <c r="F31" s="1">
         <v>-78.561786999999995</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="7">
         <v>45460</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="6">
         <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="C32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="2">
@@ -1411,24 +1447,24 @@
       <c r="F32" s="1">
         <v>-74.406566999999995</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="7">
         <v>45154</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H32" s="6">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2">
@@ -1437,24 +1473,24 @@
       <c r="F33" s="1">
         <v>-68.793222999999998</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="7">
         <v>45179</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H33" s="6">
         <v>20.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="2">
@@ -1463,10 +1499,10 @@
       <c r="F34" s="1">
         <v>-73.225581000000005</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="7">
         <v>45496</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="6">
         <v>28</v>
       </c>
     </row>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A565848-75BA-694A-9BDB-D4D4F3B02202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F4D76-6BA5-7449-A932-934B1D5573B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>site_num</t>
   </si>
@@ -113,9 +113,6 @@
     <t>past</t>
   </si>
   <si>
-    <t>Long Pond</t>
-  </si>
-  <si>
     <t>Moosehead Lake</t>
   </si>
   <si>
@@ -224,7 +221,13 @@
     <t>Meduxnekeag Lake</t>
   </si>
   <si>
-    <t>Deering Oaks Pond</t>
+    <t>Chute River</t>
+  </si>
+  <si>
+    <t>Saco Lake</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,13 +290,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -633,7 +630,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -647,16 +644,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -665,24 +662,24 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1">
@@ -691,24 +688,24 @@
       <c r="F2" s="1">
         <v>-69.342478999999997</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="4">
         <v>45526</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="2">
@@ -717,95 +714,100 @@
       <c r="F3" s="1">
         <v>-69.911663000000004</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="4">
+        <v>45530</v>
+      </c>
+      <c r="H3" s="3">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45.677478000000001</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-69.737171000000004</v>
+      </c>
+      <c r="G4" s="4">
+        <v>45527</v>
+      </c>
+      <c r="H4" s="3">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46.098498999999997</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-68.003449000000003</v>
+      </c>
+      <c r="G5" s="4">
+        <v>45528</v>
+      </c>
+      <c r="H5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43.658537000000003</v>
-      </c>
-      <c r="F4" s="1">
-        <v>-70.270062999999993</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44.216538</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-71.408750999999995</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45531</v>
+      </c>
+      <c r="H6" s="3">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45.677478000000001</v>
-      </c>
-      <c r="F5" s="1">
-        <v>-69.737171000000004</v>
-      </c>
-      <c r="G5" s="7">
-        <v>45527</v>
-      </c>
-      <c r="H5" s="6">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2">
-        <v>46.098498999999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>-68.003449000000003</v>
-      </c>
-      <c r="G6" s="7">
-        <v>45528</v>
-      </c>
-      <c r="H6" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>39.576931999999999</v>
@@ -813,25 +815,25 @@
       <c r="F7" s="1">
         <v>-105.042222</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>45494</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>24.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="1">
         <v>39.943925900000004</v>
@@ -839,25 +841,25 @@
       <c r="F8" s="1">
         <v>-105.810562</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>45489</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>49</v>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="E9" s="1">
         <v>40.250444000000002</v>
@@ -865,25 +867,25 @@
       <c r="F9" s="1">
         <v>-105.819607</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="4">
         <v>45490</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="3">
         <v>17.5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="E10" s="2">
         <v>41.379134999999998</v>
@@ -891,20 +893,18 @@
       <c r="F10" s="1">
         <v>-71.828442999999993</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E11" s="2">
@@ -913,20 +913,18 @@
       <c r="F11" s="1">
         <v>-72.528583999999995</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E12" s="2">
@@ -935,20 +933,18 @@
       <c r="F12" s="1">
         <v>-71.900000000000006</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2">
@@ -957,24 +953,24 @@
       <c r="F13" s="1">
         <v>-70.841425999999998</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <v>45471</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="3">
         <v>26.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2">
@@ -983,24 +979,24 @@
       <c r="F14" s="1">
         <v>-71.368792999999997</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="4">
         <v>45469</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="3">
         <v>27.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2">
@@ -1009,24 +1005,24 @@
       <c r="F15" s="1">
         <v>-71.744838000000001</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="4">
         <v>45470</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="3">
         <v>24.5</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="2">
@@ -1035,24 +1031,24 @@
       <c r="F16" s="1">
         <v>-73.406449199999997</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="4">
         <v>45510</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="5">
@@ -1061,24 +1057,24 @@
       <c r="F17" s="1">
         <v>-73.290063000000004</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="4">
         <v>45508</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
@@ -1087,24 +1083,24 @@
       <c r="F18" s="1">
         <v>-73.248354000000006</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="4">
         <v>45507</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="2">
@@ -1113,24 +1109,24 @@
       <c r="F19" s="1">
         <v>-72.886409</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="4">
         <v>45509</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="2">
@@ -1139,20 +1135,18 @@
       <c r="F20" s="1">
         <v>-71.153582</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="2">
@@ -1161,24 +1155,24 @@
       <c r="F21" s="1">
         <v>-82.430564000000004</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="4">
         <v>45440</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="3">
         <v>24.5</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="2">
@@ -1187,24 +1181,24 @@
       <c r="F22" s="1">
         <v>-77.920331099999999</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="4">
         <v>45437</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="3">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="2">
@@ -1213,24 +1207,24 @@
       <c r="F23" s="1">
         <v>-79.879589999999993</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>45441</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="2">
@@ -1239,24 +1233,24 @@
       <c r="F24" s="1">
         <v>-77.358057000000002</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="4">
         <v>45436</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2">
@@ -1265,24 +1259,24 @@
       <c r="F25" s="1">
         <v>-76.882706999999996</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="4">
         <v>45442</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="2">
@@ -1291,24 +1285,24 @@
       <c r="F26" s="1">
         <v>-75.731083999999996</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="4">
         <v>45435</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E27" s="2">
@@ -1317,24 +1311,24 @@
       <c r="F27" s="1">
         <v>-74.975570000000005</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="4">
         <v>45443</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="2">
@@ -1343,24 +1337,24 @@
       <c r="F28" s="1">
         <v>-83.022433000000007</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="4">
         <v>45463</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="3">
         <v>23.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="2">
@@ -1369,24 +1363,24 @@
       <c r="F29" s="1">
         <v>-80.538070000000005</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="4">
         <v>45461</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="2">
@@ -1395,24 +1389,24 @@
       <c r="F30" s="1">
         <v>-80.138642000000004</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="4">
         <v>45464</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E31" s="2">
@@ -1421,24 +1415,24 @@
       <c r="F31" s="1">
         <v>-78.561786999999995</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="4">
         <v>45460</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="3">
         <v>28.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="2">
@@ -1447,24 +1441,24 @@
       <c r="F32" s="1">
         <v>-74.406566999999995</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="4">
         <v>45154</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E33" s="2">
@@ -1473,24 +1467,24 @@
       <c r="F33" s="1">
         <v>-68.793222999999998</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="4">
         <v>45179</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="3">
         <v>20.5</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E34" s="2">
@@ -1499,10 +1493,10 @@
       <c r="F34" s="1">
         <v>-73.225581000000005</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="4">
         <v>45496</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="3">
         <v>28</v>
       </c>
     </row>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9F4D76-6BA5-7449-A932-934B1D5573B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C386C-0070-6646-8FBF-0B03F3564262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
+    <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -774,6 +774,9 @@
       </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>59</v>
       </c>
@@ -798,7 +801,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>46</v>
@@ -824,7 +827,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>46</v>
@@ -850,7 +853,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>46</v>
@@ -876,7 +879,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>29</v>
@@ -896,7 +899,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>29</v>
@@ -916,7 +919,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>29</v>
@@ -936,7 +939,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>32</v>
@@ -962,7 +965,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>32</v>
@@ -988,7 +991,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>32</v>
@@ -1014,7 +1017,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>33</v>
@@ -1040,7 +1043,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>33</v>
@@ -1066,7 +1069,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>33</v>
@@ -1092,7 +1095,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>33</v>
@@ -1118,7 +1121,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -1138,7 +1141,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>17</v>
@@ -1164,7 +1167,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>17</v>
@@ -1190,7 +1193,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>17</v>
@@ -1216,7 +1219,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>17</v>
@@ -1242,7 +1245,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>17</v>
@@ -1268,7 +1271,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>17</v>
@@ -1294,7 +1297,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>17</v>
@@ -1320,7 +1323,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>19</v>
@@ -1372,7 +1375,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -1398,7 +1401,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>24</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>24</v>
@@ -1476,7 +1479,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>50</v>

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C386C-0070-6646-8FBF-0B03F3564262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A9345-847C-3D43-96A0-CA54532F5554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -630,7 +630,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -896,6 +896,12 @@
       <c r="F10" s="1">
         <v>-71.828442999999993</v>
       </c>
+      <c r="G10" s="4">
+        <v>45540</v>
+      </c>
+      <c r="H10" s="3">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">

--- a/Raw_data/site_list.xlsx
+++ b/Raw_data/site_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsasaki/Desktop/Lab_Projects/diapt_ctmax_survey/Raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A9345-847C-3D43-96A0-CA54532F5554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E6513-1357-BC4D-AF22-9D9EE5E8E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15120" yWindow="760" windowWidth="15120" windowHeight="18880" xr2:uid="{70252E7D-B877-DF4F-9713-FDF3EF035878}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
   <si>
     <t>site_num</t>
   </si>
@@ -119,18 +119,12 @@
     <t>Lake Whalom</t>
   </si>
   <si>
-    <t>Horn Pond</t>
-  </si>
-  <si>
     <t>Center Springs Pond</t>
   </si>
   <si>
     <t>CT</t>
   </si>
   <si>
-    <t>West Thompson Reservoir</t>
-  </si>
-  <si>
     <t>Sacandaga Lake</t>
   </si>
   <si>
@@ -192,9 +186,6 @@
   </si>
   <si>
     <t>Pontoosuc Lake</t>
-  </si>
-  <si>
-    <t>MA_C</t>
   </si>
   <si>
     <t>Benedict Pond</t>
@@ -627,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681DA912-16C1-0D41-B94E-A4D9A4706D3F}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,10 +665,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -700,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -726,7 +717,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
@@ -752,10 +743,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -778,13 +769,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="2">
         <v>44.216538</v>
@@ -804,13 +795,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E7" s="1">
         <v>39.576931999999999</v>
@@ -830,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="1">
         <v>39.943925900000004</v>
@@ -856,13 +847,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>40.250444000000002</v>
@@ -882,13 +873,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2">
         <v>41.379134999999998</v>
@@ -908,10 +899,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -921,6 +912,12 @@
       </c>
       <c r="F11" s="1">
         <v>-72.528583999999995</v>
+      </c>
+      <c r="G11" s="4">
+        <v>45541</v>
+      </c>
+      <c r="H11" s="3">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -928,19 +925,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="2">
-        <v>41.953319999999998</v>
+        <v>42.006242999999998</v>
       </c>
       <c r="F12" s="1">
-        <v>-71.900000000000006</v>
+        <v>-70.841425999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45471</v>
+      </c>
+      <c r="H12" s="3">
+        <v>26.5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -948,25 +951,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="2">
-        <v>42.006242999999998</v>
+        <v>42.555191999999998</v>
       </c>
       <c r="F13" s="1">
-        <v>-70.841425999999998</v>
+        <v>-71.368792999999997</v>
       </c>
       <c r="G13" s="4">
-        <v>45471</v>
+        <v>45469</v>
       </c>
       <c r="H13" s="3">
-        <v>26.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -974,25 +977,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="2">
-        <v>42.555191999999998</v>
+        <v>42.575761</v>
       </c>
       <c r="F14" s="1">
-        <v>-71.368792999999997</v>
+        <v>-71.744838000000001</v>
       </c>
       <c r="G14" s="4">
-        <v>45469</v>
+        <v>45470</v>
       </c>
       <c r="H14" s="3">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1000,25 +1003,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
-        <v>42.575761</v>
+        <v>41.591059600000001</v>
       </c>
       <c r="F15" s="1">
-        <v>-71.744838000000001</v>
+        <v>-73.406449199999997</v>
       </c>
       <c r="G15" s="4">
-        <v>45470</v>
+        <v>45510</v>
       </c>
       <c r="H15" s="3">
-        <v>24.5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1026,25 +1029,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2">
-        <v>41.591059600000001</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="5">
+        <v>42.204087000000001</v>
       </c>
       <c r="F16" s="1">
-        <v>-73.406449199999997</v>
+        <v>-73.290063000000004</v>
       </c>
       <c r="G16" s="4">
-        <v>45510</v>
+        <v>45508</v>
       </c>
       <c r="H16" s="3">
-        <v>31</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1052,25 +1055,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="5">
-        <v>42.204087000000001</v>
+      <c r="E17" s="2">
+        <v>42.487450000000003</v>
       </c>
       <c r="F17" s="1">
-        <v>-73.290063000000004</v>
+        <v>-73.248354000000006</v>
       </c>
       <c r="G17" s="4">
-        <v>45508</v>
+        <v>45507</v>
       </c>
       <c r="H17" s="3">
-        <v>28.5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1078,25 +1081,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="2">
-        <v>42.487450000000003</v>
+        <v>42.700695000000003</v>
       </c>
       <c r="F18" s="1">
-        <v>-73.248354000000006</v>
+        <v>-72.886409</v>
       </c>
       <c r="G18" s="4">
-        <v>45507</v>
+        <v>45509</v>
       </c>
       <c r="H18" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1104,25 +1107,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
-        <v>42.700695000000003</v>
+        <v>35.609053000000003</v>
       </c>
       <c r="F19" s="1">
-        <v>-72.886409</v>
+        <v>-82.430564000000004</v>
       </c>
       <c r="G19" s="4">
-        <v>45509</v>
+        <v>45440</v>
       </c>
       <c r="H19" s="3">
-        <v>30</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1130,19 +1133,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
-        <v>42.464753999999999</v>
+        <v>35.7911644</v>
       </c>
       <c r="F20" s="1">
-        <v>-71.153582</v>
+        <v>-77.920331099999999</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45437</v>
+      </c>
+      <c r="H20" s="3">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1153,22 +1162,22 @@
         <v>17</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2">
-        <v>35.609053000000003</v>
+        <v>37.015326000000002</v>
       </c>
       <c r="F21" s="1">
-        <v>-82.430564000000004</v>
-      </c>
-      <c r="G21" s="4">
-        <v>45440</v>
+        <v>-79.879589999999993</v>
+      </c>
+      <c r="G21" s="6">
+        <v>45441</v>
       </c>
       <c r="H21" s="3">
-        <v>24.5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1179,22 +1188,22 @@
         <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2">
-        <v>35.7911644</v>
+        <v>37.750794999999997</v>
       </c>
       <c r="F22" s="1">
-        <v>-77.920331099999999</v>
+        <v>-77.358057000000002</v>
       </c>
       <c r="G22" s="4">
-        <v>45437</v>
+        <v>45436</v>
       </c>
       <c r="H22" s="3">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1205,22 +1214,22 @@
         <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2">
-        <v>37.015326000000002</v>
+        <v>40.083305000000003</v>
       </c>
       <c r="F23" s="1">
-        <v>-79.879589999999993</v>
-      </c>
-      <c r="G23" s="6">
-        <v>45441</v>
+        <v>-76.882706999999996</v>
+      </c>
+      <c r="G23" s="4">
+        <v>45442</v>
       </c>
       <c r="H23" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1231,22 +1240,22 @@
         <v>17</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2">
-        <v>37.750794999999997</v>
+        <v>41.486063999999999</v>
       </c>
       <c r="F24" s="1">
-        <v>-77.358057000000002</v>
+        <v>-75.731083999999996</v>
       </c>
       <c r="G24" s="4">
-        <v>45436</v>
+        <v>45435</v>
       </c>
       <c r="H24" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1257,22 +1266,22 @@
         <v>17</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" s="2">
-        <v>40.083305000000003</v>
+        <v>42.505361000000001</v>
       </c>
       <c r="F25" s="1">
-        <v>-76.882706999999996</v>
+        <v>-74.975570000000005</v>
       </c>
       <c r="G25" s="4">
-        <v>45442</v>
+        <v>45443</v>
       </c>
       <c r="H25" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1280,25 +1289,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="2">
-        <v>41.486063999999999</v>
+        <v>39.857290999999996</v>
       </c>
       <c r="F26" s="1">
-        <v>-75.731083999999996</v>
+        <v>-83.022433000000007</v>
       </c>
       <c r="G26" s="4">
-        <v>45435</v>
+        <v>45463</v>
       </c>
       <c r="H26" s="3">
-        <v>25</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1306,25 +1315,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>42.505361000000001</v>
+        <v>41.597422999999999</v>
       </c>
       <c r="F27" s="1">
-        <v>-74.975570000000005</v>
+        <v>-80.538070000000005</v>
       </c>
       <c r="G27" s="4">
-        <v>45443</v>
+        <v>45461</v>
       </c>
       <c r="H27" s="3">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1335,22 +1344,22 @@
         <v>19</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2">
-        <v>39.857290999999996</v>
+        <v>41.881267999999999</v>
       </c>
       <c r="F28" s="1">
-        <v>-83.022433000000007</v>
+        <v>-80.138642000000004</v>
       </c>
       <c r="G28" s="4">
-        <v>45463</v>
+        <v>45464</v>
       </c>
       <c r="H28" s="3">
-        <v>23.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1361,22 +1370,22 @@
         <v>19</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E29" s="2">
-        <v>41.597422999999999</v>
+        <v>42.088512000000001</v>
       </c>
       <c r="F29" s="1">
-        <v>-80.538070000000005</v>
+        <v>-78.561786999999995</v>
       </c>
       <c r="G29" s="4">
-        <v>45461</v>
+        <v>45460</v>
       </c>
       <c r="H29" s="3">
-        <v>27</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1384,25 +1393,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E30" s="2">
-        <v>41.881267999999999</v>
+        <v>43.490426999999997</v>
       </c>
       <c r="F30" s="1">
-        <v>-80.138642000000004</v>
+        <v>-74.406566999999995</v>
       </c>
       <c r="G30" s="4">
-        <v>45464</v>
+        <v>45154</v>
       </c>
       <c r="H30" s="3">
-        <v>28.5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1410,25 +1419,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2">
-        <v>42.088512000000001</v>
+        <v>47.616047999999999</v>
       </c>
       <c r="F31" s="1">
-        <v>-78.561786999999995</v>
+        <v>-68.793222999999998</v>
       </c>
       <c r="G31" s="4">
-        <v>45460</v>
+        <v>45179</v>
       </c>
       <c r="H31" s="3">
-        <v>28.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1436,101 +1445,49 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E32" s="2">
-        <v>43.490426999999997</v>
+        <v>44.481127999999998</v>
       </c>
       <c r="F32" s="1">
-        <v>-74.406566999999995</v>
+        <v>-73.225581000000005</v>
       </c>
       <c r="G32" s="4">
-        <v>45154</v>
+        <v>45496</v>
       </c>
       <c r="H32" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="3">
-        <v>32</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="2">
-        <v>47.616047999999999</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-68.793222999999998</v>
-      </c>
-      <c r="G33" s="4">
-        <v>45179</v>
-      </c>
-      <c r="H33" s="3">
-        <v>20.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="2">
-        <v>44.481127999999998</v>
-      </c>
-      <c r="F34" s="1">
-        <v>-73.225581000000005</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45496</v>
-      </c>
-      <c r="H34" s="3">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="33" spans="5:7">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="2"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="5:7">
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="5:7">
       <c r="E36" s="2"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:8">
+    </row>
+    <row r="37" spans="5:7">
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="5:7">
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:8">
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="E40" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H40">
-    <sortCondition ref="B1:B40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:H38">
+    <sortCondition ref="B1:B38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
